--- a/templates/费用报销台账.xlsx
+++ b/templates/费用报销台账.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Project\AutoReimburse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DEFDDFC8-CC8F-44F7-9431-C5DAD05FCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1115F938-3168-4554-8393-A4577F78A2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="费用报销台账" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -126,12 +124,6 @@
     </r>
   </si>
   <si>
-    <t>电子普票</t>
-  </si>
-  <si>
-    <t>纸质普票</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -160,21 +152,6 @@
       </rPr>
       <t>主管领导：</t>
     </r>
-  </si>
-  <si>
-    <t>纸质专票</t>
-  </si>
-  <si>
-    <t>电子专票</t>
-  </si>
-  <si>
-    <t>定额发票</t>
-  </si>
-  <si>
-    <t>行政收据</t>
-  </si>
-  <si>
-    <t>卷式发票</t>
   </si>
   <si>
     <t>费用报销台账</t>
@@ -184,10 +161,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -274,14 +254,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -308,30 +285,39 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -661,216 +650,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="10.6875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.6875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.6875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.6875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="10.6875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="10.6875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.6875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.6875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.6875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="10.6875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="12" t="str">
+        <f>NUMBERSTRING(F16,2)</f>
+        <v>零</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8">
+        <f>SUM(F4:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -884,75 +878,4 @@
   <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:E9"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/templates/费用报销台账.xlsx
+++ b/templates/费用报销台账.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Project\AutoReimburse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1115F938-3168-4554-8393-A4577F78A2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC08945-4394-431B-9064-3A9F14229732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -318,6 +318,9 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,9 +335,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
@@ -669,16 +669,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.15" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
@@ -715,7 +715,7 @@
     </row>
     <row r="4" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="17"/>
-      <c r="B4" s="26"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="10"/>
       <c r="D4" s="9"/>
       <c r="E4" s="19"/>
@@ -725,7 +725,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
-      <c r="B5" s="26"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="11"/>
       <c r="D5" s="9"/>
       <c r="E5" s="19"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="6" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17"/>
-      <c r="B6" s="26"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11"/>
       <c r="D6" s="9"/>
       <c r="E6" s="19"/>
@@ -745,7 +745,7 @@
     </row>
     <row r="7" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17"/>
-      <c r="B7" s="26"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
       <c r="E7" s="19"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="8" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="19"/>
@@ -765,7 +765,7 @@
     </row>
     <row r="9" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="19"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="10" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17"/>
-      <c r="B10" s="26"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="19"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="11" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="20"/>
@@ -795,7 +795,7 @@
     </row>
     <row r="12" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17"/>
-      <c r="B12" s="26"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="20"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="13" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17"/>
-      <c r="B13" s="26"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="E13" s="20"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="14" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="20"/>
@@ -825,7 +825,7 @@
     </row>
     <row r="15" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="11"/>
       <c r="D15" s="9"/>
       <c r="E15" s="20"/>
@@ -834,13 +834,13 @@
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="12" t="str">
-        <f>NUMBERSTRING(F16,2)</f>
-        <v>零</v>
+        <f>TEXT(TRUNC(F16),"[DBNum2]")&amp;"元"&amp;TEXT(RIGHT(FIXED(F16),2),"[dbnum2]0角0分;;"&amp;IF(ABS(F16)&gt;1%,"",))</f>
+        <v>零元</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -857,10 +857,10 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
